--- a/scripts/09_mosiacism_analysis/mut_from_mut_vs_wt_from_wt/GABA_P60_rrvgo_enrichr.xlsx
+++ b/scripts/09_mosiacism_analysis/mut_from_mut_vs_wt_from_wt/GABA_P60_rrvgo_enrichr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t xml:space="preserve">Gene Ontology</t>
   </si>
@@ -35,205 +35,220 @@
     <t xml:space="preserve">regulation of proteasomal ubiquitin-dependent protein catabolic process</t>
   </si>
   <si>
-    <t xml:space="preserve">phosphorylation</t>
+    <t xml:space="preserve">negative regulation of neuron projection development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">histone H4-K16 acetylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respiratory electron transport chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">axon guidance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">histone acetyltransferase activity (H4-K5 specific)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cellular Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell cortex region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2-type catalytic step 2 spliceosome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitochondrial inner membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">histone acetyltransferase complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of response to interferon-gamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lytic vacuole membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dephosphorylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fatty acid beta-oxidation using acyl-CoA dehydrogenase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitochondrial respiratory chain complex assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guanosine-containing compound metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modulation by host of viral transcription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein lipoylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golgi to lysosome transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular response to oxygen levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">double-strand break repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2/M transition of mitotic cell cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein disulfide isomerase activity</t>
   </si>
   <si>
     <t xml:space="preserve">ribosome biogenesis</t>
   </si>
   <si>
-    <t xml:space="preserve">ncRNA processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of neurogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cellular Component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWI/SNF complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein kinase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2-type catalytic step 2 spliceosome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P-type ion transporter activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intra-Golgi vesicle-mediated transport</t>
+    <t xml:space="preserve">regulation of programmed cell death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuclear-transcribed mRNA catabolic process, nonsense-mediated decay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of short-term neuronal synaptic plasticity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endoplasmic reticulum organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein-arginine N-methyltransferase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voltage-gated chloride channel activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADP binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disulfide oxidoreductase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rRNA metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amyloid precursor protein metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fatty acid transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative chemotaxis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitochondrial small ribosomal subunit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell-substrate junction assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heme biosynthetic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dendritic spine maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sphingosine-1-phosphate receptor signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ear development</t>
   </si>
   <si>
     <t xml:space="preserve">DNA ligase (ATP) activity</t>
   </si>
   <si>
-    <t xml:space="preserve">cellular response to interleukin-12</t>
+    <t xml:space="preserve">mRNA splicing, via spliceosome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubiquitin protein ligase binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'de novo' post-translational protein folding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein homodimerization activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcription-dependent tethering of RNA polymerase II gene DNA at nuclear periphery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">growth hormone receptor binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">queuine tRNA-ribosyltransferase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anchored component of external side of plasma membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMO transferase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intracellular pH reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">centrosome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of heterotypic cell-cell adhesion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of DNA binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tau protein binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endothelial cell migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of ion transmembrane transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cAMP-dependent protein kinase inhibitor activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nucleolus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of response to endoplasmic reticulum stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epigenetic regulation of gene expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTPase activity</t>
   </si>
   <si>
     <t xml:space="preserve">disordered domain specific binding</t>
   </si>
   <si>
-    <t xml:space="preserve">positive regulation of transporter activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">viral process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth hormone receptor binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of programmed cell death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein localization to chromosome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of neuron projection regeneration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lagging strand elongation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tau protein binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytoplasmic translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H4 histone acetyltransferase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of protein-containing complex assembly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular response to oxygen levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of ion transmembrane transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of heterotypic cell-cell adhesion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of mitotic cell cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">respiratory electron transport chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">histone H4 acetylation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endoplasmic reticulum organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of response to endoplasmic reticulum stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nucleolus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inner mitochondrial membrane organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADP binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitochondrial respiratory chain complex I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COPII vesicle coat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytosolic ribosome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calcium channel regulator activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">microtubule organizing center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of synaptic transmission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guanosine-containing compound metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of cellular extravasation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubiquinone binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein phosphatase 2B binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of cell morphogenesis involved in differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMPA glutamate receptor complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUMO transferase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phosphoric diester hydrolase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lytic vacuole membrane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dynein complex binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular response to forskolin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to magnesium ion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of monooxygenase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apical dendrite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oxidized DNA binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein disulfide isomerase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">receptor signaling pathway via STAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endoplasmic reticulum-Golgi intermediate compartment</t>
+    <t xml:space="preserve">ERBB2 signaling pathway</t>
   </si>
   <si>
     <t xml:space="preserve">response to laminar fluid shear stress</t>
   </si>
   <si>
-    <t xml:space="preserve">disulfide oxidoreductase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nuclear androgen receptor binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heart process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nuclear inclusion body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 iron, 4 sulfur cluster binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">focal adhesion</t>
+    <t xml:space="preserve">cellular response to leucine starvation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of transcription from RNA polymerase II promoter in response to stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activin binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peroxisomal membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recycling endosome</t>
   </si>
 </sst>
 </file>
@@ -584,7 +599,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>6.42575459629936</v>
+        <v>4.9488515356024</v>
       </c>
     </row>
     <row r="3">
@@ -595,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>5.9636658615912</v>
+        <v>4.40328552712421</v>
       </c>
     </row>
     <row r="4">
@@ -606,7 +621,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>5.26705032471159</v>
+        <v>4.33179590781904</v>
       </c>
     </row>
     <row r="5">
@@ -617,7 +632,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>5.19165750596796</v>
+        <v>4.17070257124709</v>
       </c>
     </row>
     <row r="6">
@@ -628,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>5.16078893374076</v>
+        <v>4.11682769368889</v>
       </c>
     </row>
     <row r="7">
@@ -639,62 +654,62 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>4.07031970935968</v>
+        <v>4.0312390342629</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
       <c r="C8" t="n">
-        <v>4.05294001380504</v>
+        <v>3.63667479245824</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>3.98716726401882</v>
+        <v>3.45213361143133</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>3.50047947941943</v>
+        <v>3.44830544922816</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>3.3210033850736</v>
+        <v>3.21308363922391</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>3.19336790144107</v>
+        <v>3.14917715660666</v>
       </c>
     </row>
     <row r="13">
@@ -705,18 +720,18 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>3.18155964951841</v>
+        <v>3.00539170371549</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>3.17587801380957</v>
+        <v>2.99962241670468</v>
       </c>
     </row>
     <row r="15">
@@ -727,18 +742,18 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>3.13819523432264</v>
+        <v>2.99214741142254</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>3.09878524761445</v>
+        <v>2.88239141752038</v>
       </c>
     </row>
     <row r="17">
@@ -749,7 +764,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>3.04181152515415</v>
+        <v>2.78863173271229</v>
       </c>
     </row>
     <row r="18">
@@ -760,18 +775,18 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>2.97046916302662</v>
+        <v>2.76913689413538</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>2.94363614960508</v>
+        <v>2.72326883462114</v>
       </c>
     </row>
     <row r="20">
@@ -782,7 +797,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>2.80829196781091</v>
+        <v>2.72225871684067</v>
       </c>
     </row>
     <row r="21">
@@ -793,7 +808,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>2.76611017709461</v>
+        <v>2.72225871684067</v>
       </c>
     </row>
     <row r="22">
@@ -804,7 +819,7 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>2.75029427188109</v>
+        <v>2.55717345346665</v>
       </c>
     </row>
     <row r="23">
@@ -815,40 +830,40 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>2.75029427188109</v>
+        <v>2.51734955463911</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>2.75029427188109</v>
+        <v>2.43590015344638</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>2.71734085029244</v>
+        <v>2.39050863021654</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>2.69993912542132</v>
+        <v>2.35336745395829</v>
       </c>
     </row>
     <row r="27">
@@ -859,7 +874,7 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>2.60352193018165</v>
+        <v>2.33829068163909</v>
       </c>
     </row>
     <row r="28">
@@ -870,7 +885,7 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>2.58496282453679</v>
+        <v>2.33042263943965</v>
       </c>
     </row>
     <row r="29">
@@ -881,7 +896,7 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>2.58496282453679</v>
+        <v>2.28592252322451</v>
       </c>
     </row>
     <row r="30">
@@ -892,51 +907,51 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>2.51091150790476</v>
+        <v>2.27024729225089</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>2.47313219279138</v>
+        <v>2.17193122281</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>2.40914691474496</v>
+        <v>2.17193122281</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>2.36456340056847</v>
+        <v>2.16340692892779</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>2.31122247521352</v>
+        <v>2.0957938332051</v>
       </c>
     </row>
     <row r="35">
@@ -947,18 +962,18 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>2.26914625193862</v>
+        <v>2.08441189695806</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>2.21375201742059</v>
+        <v>2.06891550807256</v>
       </c>
     </row>
     <row r="37">
@@ -969,73 +984,73 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>2.20281496255351</v>
+        <v>1.97508786890777</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>2.19749917479712</v>
+        <v>1.97061388932898</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>2.18809655976681</v>
+        <v>1.91250106632659</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>2.09572927286636</v>
+        <v>1.88906551708602</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
         <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>2.09028742305923</v>
+        <v>1.80975637652243</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>2.00394298929463</v>
+        <v>1.80600786458126</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
         <v>47</v>
       </c>
       <c r="C43" t="n">
-        <v>1.97463869765671</v>
+        <v>1.80600786458126</v>
       </c>
     </row>
     <row r="44">
@@ -1046,18 +1061,18 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>1.94557724739649</v>
+        <v>1.80600786458126</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
       <c r="C45" t="n">
-        <v>1.83584822449559</v>
+        <v>1.80600786458126</v>
       </c>
     </row>
     <row r="46">
@@ -1068,7 +1083,7 @@
         <v>50</v>
       </c>
       <c r="C46" t="n">
-        <v>1.82463231974674</v>
+        <v>1.78659102001424</v>
       </c>
     </row>
     <row r="47">
@@ -1079,40 +1094,40 @@
         <v>51</v>
       </c>
       <c r="C47" t="n">
-        <v>1.82463231974674</v>
+        <v>1.77413070726931</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
       </c>
       <c r="C48" t="n">
-        <v>1.82463231974674</v>
+        <v>1.75342615454339</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
       </c>
       <c r="C49" t="n">
-        <v>1.78574805060519</v>
+        <v>1.74421878855604</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
       </c>
       <c r="C50" t="n">
-        <v>1.69354357462296</v>
+        <v>1.66963475139442</v>
       </c>
     </row>
     <row r="51">
@@ -1123,7 +1138,7 @@
         <v>55</v>
       </c>
       <c r="C51" t="n">
-        <v>1.69354357462296</v>
+        <v>1.66963475139442</v>
       </c>
     </row>
     <row r="52">
@@ -1134,18 +1149,18 @@
         <v>56</v>
       </c>
       <c r="C52" t="n">
-        <v>1.64523333921256</v>
+        <v>1.66963475139442</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
         <v>57</v>
       </c>
       <c r="C53" t="n">
-        <v>1.63302324581988</v>
+        <v>1.66792823427692</v>
       </c>
     </row>
     <row r="54">
@@ -1156,7 +1171,7 @@
         <v>58</v>
       </c>
       <c r="C54" t="n">
-        <v>1.62947942070122</v>
+        <v>1.66792823427692</v>
       </c>
     </row>
     <row r="55">
@@ -1167,18 +1182,18 @@
         <v>59</v>
       </c>
       <c r="C55" t="n">
-        <v>1.57261412219021</v>
+        <v>1.61365889589524</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
       </c>
       <c r="C56" t="n">
-        <v>1.57261412219021</v>
+        <v>1.60563436284821</v>
       </c>
     </row>
     <row r="57">
@@ -1189,18 +1204,18 @@
         <v>61</v>
       </c>
       <c r="C57" t="n">
-        <v>1.57261412219021</v>
+        <v>1.6041008810899</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
         <v>62</v>
       </c>
       <c r="C58" t="n">
-        <v>1.57261412219021</v>
+        <v>1.57071606120217</v>
       </c>
     </row>
     <row r="59">
@@ -1211,18 +1226,18 @@
         <v>63</v>
       </c>
       <c r="C59" t="n">
-        <v>1.57261412219021</v>
+        <v>1.55442221323586</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
         <v>64</v>
       </c>
       <c r="C60" t="n">
-        <v>1.56944814808382</v>
+        <v>1.5294087078013</v>
       </c>
     </row>
     <row r="61">
@@ -1233,95 +1248,150 @@
         <v>65</v>
       </c>
       <c r="C61" t="n">
-        <v>1.45987246348105</v>
+        <v>1.45497506090064</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B62" t="s">
         <v>66</v>
       </c>
       <c r="C62" t="n">
-        <v>1.4210715663955</v>
+        <v>1.45497506090064</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
         <v>67</v>
       </c>
       <c r="C63" t="n">
-        <v>1.38549799882709</v>
+        <v>1.45149609847509</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
         <v>68</v>
       </c>
       <c r="C64" t="n">
-        <v>1.3621429252215</v>
+        <v>1.43519842685786</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
       </c>
       <c r="C65" t="n">
-        <v>1.30817863755742</v>
+        <v>1.40955537836844</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B66" t="s">
         <v>70</v>
       </c>
       <c r="C66" t="n">
-        <v>1.30777533285315</v>
+        <v>1.40772167290452</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B67" t="s">
         <v>71</v>
       </c>
       <c r="C67" t="n">
-        <v>1.30777533285315</v>
+        <v>1.38522359989274</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
         <v>72</v>
       </c>
       <c r="C68" t="n">
-        <v>1.30777533285315</v>
+        <v>1.37870302843631</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
         <v>73</v>
       </c>
       <c r="C69" t="n">
-        <v>1.30258681612021</v>
+        <v>1.36773333882841</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.36773333882841</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.36773333882841</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.36773333882841</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.34426402167463</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.31106151026976</v>
       </c>
     </row>
   </sheetData>
